--- a/Assets/PSW/Excel/Monster.xlsx
+++ b/Assets/PSW/Excel/Monster.xlsx
@@ -29,15 +29,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ViewName</t>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterViewName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TypeIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,15 +366,18 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -385,13 +388,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/PSW/Excel/Monster.xlsx
+++ b/Assets/PSW/Excel/Monster.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,42 @@
   </si>
   <si>
     <t>TypeIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초랭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨갱이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파랭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨갛다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파랗다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸르다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -397,6 +433,57 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/PSW/Excel/Monster.xlsx
+++ b/Assets/PSW/Excel/Monster.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>푸르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수풀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 적이 나올지 알 수 없다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -438,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -455,16 +467,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -472,15 +484,32 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Assets/PSW/Excel/Monster.xlsx
+++ b/Assets/PSW/Excel/Monster.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/PSW/Excel/Monster.xlsx
+++ b/Assets/PSW/Excel/Monster.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,18 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RedMonster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueMonster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenMonster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>초랭이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,16 +65,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수풀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>무슨 적이 나올지 알 수 없다</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_Giant_ Battle_Character_Fire_01</t>
+  </si>
+  <si>
+    <t>큰빨갱이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_Common_ Battle_Character_Water_01</t>
+  </si>
+  <si>
+    <t>Char_Common_ Battle_Character_Leaf_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_Common_ Battle_Character_Fire_01</t>
+  </si>
+  <si>
+    <t>Char_Enemy_Unknown_01</t>
   </si>
 </sst>
 </file>
@@ -411,16 +419,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="36.875" customWidth="1"/>
     <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
@@ -450,16 +458,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -467,16 +475,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -484,16 +492,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -501,16 +509,33 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/PSW/Excel/Monster.xlsx
+++ b/Assets/PSW/Excel/Monster.xlsx
@@ -19,89 +19,155 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterViewName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TypeIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초랭이</t>
+    <t>Char_Enemy_Unknown_01</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ViewName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빨갱이</t>
+    <t>Char_Starting_Battle_Character_Fire_01</t>
+  </si>
+  <si>
+    <t>불속성스타팅1</t>
+  </si>
+  <si>
+    <t>Char_Starting_Battle_Character_Water_01</t>
+  </si>
+  <si>
+    <t>물속성스타팅1</t>
+  </si>
+  <si>
+    <t>Char_Starting_Battle_Character_Leaf_01</t>
+  </si>
+  <si>
+    <t>풀속성스타팅1</t>
+  </si>
+  <si>
+    <t>Char_Unique_Battle_Character_Fire_01</t>
+  </si>
+  <si>
+    <t>불속성유니크1</t>
+  </si>
+  <si>
+    <t>Char_Unique_Battle_Character_Water_01</t>
+  </si>
+  <si>
+    <t>물속성유니크1</t>
+  </si>
+  <si>
+    <t>Char_Unique_Battle_Character_Leaf_01</t>
+  </si>
+  <si>
+    <t>풀속성유니크1</t>
+  </si>
+  <si>
+    <t>Char_Common_Battle_Character_Fire_01</t>
+  </si>
+  <si>
+    <t>불속성커먼1</t>
+  </si>
+  <si>
+    <t>Char_Common_Battle_Character_Water_01</t>
+  </si>
+  <si>
+    <t>물속성커먼1</t>
+  </si>
+  <si>
+    <t>Char_Common_Battle_Character_Leaf_01</t>
+  </si>
+  <si>
+    <t>풀속성커먼1</t>
+  </si>
+  <si>
+    <t>불속성거대한적1</t>
+  </si>
+  <si>
+    <t>물속성거대한적1</t>
+  </si>
+  <si>
+    <t>풀속성거대한적1</t>
+  </si>
+  <si>
+    <t>의문의적A</t>
+  </si>
+  <si>
+    <t>의문의적B</t>
+  </si>
+  <si>
+    <t>의문의적C</t>
+  </si>
+  <si>
+    <t>FileName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파랭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨갛다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파랗다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸르다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수풀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨 적이 나올지 알 수 없다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Char_Giant_ Battle_Character_Fire_01</t>
-  </si>
-  <si>
-    <t>큰빨갱이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Char_Common_ Battle_Character_Water_01</t>
-  </si>
-  <si>
-    <t>Char_Common_ Battle_Character_Leaf_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Char_Common_ Battle_Character_Fire_01</t>
-  </si>
-  <si>
-    <t>Char_Enemy_Unknown_01</t>
+    <t>MonsterName</t>
+  </si>
+  <si>
+    <t>Enemy_Unknown_A</t>
+  </si>
+  <si>
+    <t>Enemy_Unknown_B</t>
+  </si>
+  <si>
+    <t>Enemy_Unknown_C</t>
+  </si>
+  <si>
+    <t>FireStarting1</t>
+  </si>
+  <si>
+    <t>WaterStarting1</t>
+  </si>
+  <si>
+    <t>LeafStarting1</t>
+  </si>
+  <si>
+    <t>FireUnique1</t>
+  </si>
+  <si>
+    <t>WaterUnique1</t>
+  </si>
+  <si>
+    <t>LeafUnique1</t>
+  </si>
+  <si>
+    <t>FireCommon1</t>
+  </si>
+  <si>
+    <t>WaterCommon1</t>
+  </si>
+  <si>
+    <t>LeafCommon1</t>
+  </si>
+  <si>
+    <t>EnemyGiantA</t>
+  </si>
+  <si>
+    <t>EnemyGiantB</t>
+  </si>
+  <si>
+    <t>EnemyGiantC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,19 +182,85 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -137,8 +269,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -419,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="36.875" customWidth="1"/>
@@ -436,106 +586,279 @@
     <col min="7" max="7" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A2" s="2">
+        <v>111001</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A3" s="2">
+        <v>121001</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A4" s="2">
+        <v>131001</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A5" s="2">
+        <v>112001</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A6" s="2">
+        <v>122001</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="F6" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A7" s="2">
+        <v>132001</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A8" s="2">
+        <v>113001</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F8" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A9" s="2">
+        <v>123001</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A10" s="2">
+        <v>133001</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A11" s="2">
+        <v>115001</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A12" s="2">
+        <v>125001</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A13" s="2">
+        <v>135001</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A14" s="2">
+        <v>104001</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="F14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A15" s="2">
+        <v>104002</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A16" s="2">
+        <v>104003</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/PSW/Excel/Monster.xlsx
+++ b/Assets/PSW/Excel/Monster.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -725,7 +725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="33.75" thickBot="1">
+    <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="2">
         <v>123001</v>
       </c>

--- a/Assets/PSW/Excel/Monster.xlsx
+++ b/Assets/PSW/Excel/Monster.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,35 @@
   </si>
   <si>
     <t>EnemyGiantC</t>
+  </si>
+  <si>
+    <t>풀속성유니크배틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_Unique_Battle_Character_Leaf_Unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeafUniqueUnknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_Giant_Battle_Character_Fire_01</t>
+  </si>
+  <si>
+    <t>Char_Giant_Battle_Character_Water_01</t>
+  </si>
+  <si>
+    <t>Char_Giant_Battle_Character_Leaf_01</t>
+  </si>
+  <si>
+    <t>Char_Enemy_Unknown_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_Enemy_Unknown_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -569,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -764,7 +793,7 @@
         <v>115001</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -781,7 +810,7 @@
         <v>125001</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
@@ -798,7 +827,7 @@
         <v>135001</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
@@ -832,7 +861,7 @@
         <v>104002</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
@@ -849,7 +878,7 @@
         <v>104003</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
@@ -859,6 +888,23 @@
       </c>
       <c r="F16" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A17" s="2">
+        <v>104004</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
